--- a/Data validation.xlsx
+++ b/Data validation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t xml:space="preserve">Table </t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>bartholomewbartholomew</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>Last Name</t>
@@ -178,7 +181,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -248,14 +251,16 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -264,16 +269,19 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -281,7 +289,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -290,16 +298,19 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -307,7 +318,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -316,16 +327,19 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -333,33 +347,36 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3">
         <v>2215.0</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -368,16 +385,19 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
